--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApps-HinduGodWallpapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7055FB-29D5-488B-837E-87B8DB8DCE25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C5DA0B-5F8E-4B0E-BBBF-F1D32A0233A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="3759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="4475">
   <si>
     <t>Headers</t>
   </si>
@@ -11307,6 +11307,2154 @@
   </si>
   <si>
     <t>collection13HD</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C3/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C3/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C3/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/85.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/86.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/87.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/88.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/89.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/90.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/TH/91.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/85.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/86.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/87.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/88.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/89.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/90.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/91.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/92.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/TH/93.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C1/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C2/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C3/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C3/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C3/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C4/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/85.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/86.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/87.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/88.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/89.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/90.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C5/HD/91.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C6/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C7/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C8/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C9/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/85.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/86.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/87.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/88.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/89.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/90.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/91.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/92.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C10/HD/93.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C11/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C12/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-HinduGodWallpapers/master/C13/HD/14.png</t>
   </si>
 </sst>
 </file>
@@ -11705,7 +13853,7 @@
   <dimension ref="A1:AY1859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11878,32 +14026,90 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>3759</v>
+      </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="D2" s="9" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4117</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3774</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4132</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4157</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3802</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4160</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3811</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4169</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>3902</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4260</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>3925</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4283</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>3948</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>4306</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>3970</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>4328</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>3984</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>4342</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>4077</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>4435</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>4094</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>4452</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>4103</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>4461</v>
+      </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -11931,32 +14137,90 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>3774</v>
+      </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="D3" s="5" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4118</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3775</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4158</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3803</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4161</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>3812</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>4170</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3903</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>4261</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>3926</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4284</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>3949</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>4307</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>3971</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>4329</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>3985</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>4343</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>4078</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>4436</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>4095</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>4453</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>4104</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>4462</v>
+      </c>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -11984,32 +14248,90 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>3799</v>
+      </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>3761</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3776</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4134</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>3801</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4159</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4162</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>3813</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>4171</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>3904</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>4262</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>3927</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>4285</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>3950</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>4308</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>3972</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>4330</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>3986</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>4344</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>4079</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>4437</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>4096</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>4454</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>4105</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>4463</v>
+      </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -12037,32 +14359,86 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>3802</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>3762</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4120</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3777</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4135</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="J5" s="5" t="s">
+        <v>3805</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>4163</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>3814</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>4172</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>3905</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>4263</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>3928</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>4286</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>3951</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>4309</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>3973</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>4331</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>3987</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>4345</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>4080</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>4438</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>4097</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>4455</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>4106</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>4464</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -12090,32 +14466,86 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>3811</v>
+      </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4121</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3778</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4136</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="J6" s="5" t="s">
+        <v>3806</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>4164</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>3815</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>4173</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>3906</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>4264</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>3929</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>4287</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>3952</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>4310</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>3974</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>4332</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>3988</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>4346</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>4081</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>4439</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>4098</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>4456</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>4107</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>4465</v>
+      </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -12143,32 +14573,86 @@
       <c r="A7" s="1" t="s">
         <v>3735</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>3902</v>
+      </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>3764</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4122</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3779</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4137</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="J7" s="5" t="s">
+        <v>3807</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4165</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>3816</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>4174</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>3907</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>4265</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>3930</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>4288</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>3953</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>4311</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>3975</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>4333</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>3989</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>4347</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>4082</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>4440</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>4099</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>4457</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>4108</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>4466</v>
+      </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -12196,32 +14680,86 @@
       <c r="A8" s="1" t="s">
         <v>3736</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>3925</v>
+      </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>3765</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4123</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>3780</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>4138</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>3808</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4166</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>3817</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>4175</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>3908</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>4266</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>3931</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>4289</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>3954</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>4312</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>3976</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>4334</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>3990</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>4348</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>4083</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>4441</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>4100</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>4458</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>4109</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>4467</v>
+      </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -12249,32 +14787,86 @@
       <c r="A9" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>3948</v>
+      </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4124</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>3781</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4139</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AC9" s="1"/>
+      <c r="J9" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>4167</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>3818</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>4176</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>3909</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>4267</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>3932</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>4290</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>3955</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>4313</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>3977</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>4335</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>3991</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>4349</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>4084</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>4442</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>4101</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>4459</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>4110</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>4468</v>
+      </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -12302,32 +14894,86 @@
       <c r="A10" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>3970</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>3767</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4125</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>3782</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4140</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4168</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>3819</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>4177</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>3910</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>4268</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>3933</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>4291</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>3956</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>4314</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>3978</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>4336</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>3992</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>4350</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>4085</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>4443</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>4102</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>4460</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>4111</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>4469</v>
+      </c>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
@@ -12355,32 +15001,77 @@
       <c r="A11" s="1" t="s">
         <v>3739</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>3984</v>
+      </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4126</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>3783</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4141</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="L11" s="5" t="s">
+        <v>3820</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>4178</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>3911</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>4269</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>3934</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>4292</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>3957</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>4315</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>3979</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>4337</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>3993</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>4351</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>4086</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>4444</v>
+      </c>
       <c r="AA11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="AB11" s="5" t="s">
+        <v>4112</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>4470</v>
+      </c>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -12408,32 +15099,77 @@
       <c r="A12" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>4077</v>
+      </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4127</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>3784</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>4142</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="L12" s="5" t="s">
+        <v>3821</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>4179</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>3912</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>4270</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>3935</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>4293</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>3958</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>4316</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>3980</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>4338</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>3994</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>4352</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>4087</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>4445</v>
+      </c>
       <c r="AA12" s="1"/>
-      <c r="AC12" s="1"/>
+      <c r="AB12" s="5" t="s">
+        <v>4113</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>4471</v>
+      </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -12461,32 +15197,77 @@
       <c r="A13" s="1" t="s">
         <v>3751</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>4094</v>
+      </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>3770</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4128</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>3785</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4143</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="L13" s="5" t="s">
+        <v>3822</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>4180</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>3913</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>4271</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>3936</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>4294</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>3959</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>4317</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>3981</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>4339</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>3995</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>4353</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>4088</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>4446</v>
+      </c>
       <c r="AA13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AB13" s="5" t="s">
+        <v>4114</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>4472</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -12514,32 +15295,77 @@
       <c r="A14" s="1" t="s">
         <v>3752</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>4103</v>
+      </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>3771</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4129</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>3786</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>4144</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="L14" s="5" t="s">
+        <v>3823</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>4181</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>3914</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>4272</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>3937</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>4295</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>3960</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>4318</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>3982</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>4340</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>3996</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>4354</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>4089</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>4447</v>
+      </c>
       <c r="AA14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AB14" s="5" t="s">
+        <v>4115</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>4473</v>
+      </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -12565,28 +15391,71 @@
     </row>
     <row r="15" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4130</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>3787</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4145</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="L15" s="5" t="s">
+        <v>3824</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>4182</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>3915</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>4273</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>3938</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>4296</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>3961</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>4319</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>3983</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>4341</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>3997</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>4355</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>4090</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>4448</v>
+      </c>
       <c r="AA15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AB15" s="5" t="s">
+        <v>4116</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>4474</v>
+      </c>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -12610,26 +15479,60 @@
     </row>
     <row r="16" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>4131</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>3788</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>4146</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>3825</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>4183</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>3916</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>4274</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>3939</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>4297</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>3962</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>4320</v>
+      </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="V16" s="5" t="s">
+        <v>3998</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>4356</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>4091</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>4449</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AF16" s="5"/>
@@ -12657,24 +15560,54 @@
       <c r="A17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>3789</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>4147</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>3826</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>4184</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>3917</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>4275</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>3940</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>4298</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>3963</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>4321</v>
+      </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="V17" s="5" t="s">
+        <v>3999</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>4357</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>4092</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>4450</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AH17" s="5"/>
@@ -12700,24 +15633,54 @@
       <c r="A18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>4148</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>3827</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>4185</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>3918</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>4276</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>3941</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>4299</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>3964</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>4322</v>
+      </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="V18" s="5" t="s">
+        <v>4000</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>4358</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>4093</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>4451</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AH18" s="5"/>
@@ -12743,22 +15706,48 @@
       <c r="A19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>3791</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>4149</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>3828</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>4186</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>3919</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>4277</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>3942</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>4300</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>3965</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>4323</v>
+      </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="W19" s="1"/>
+      <c r="V19" s="5" t="s">
+        <v>4001</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>4359</v>
+      </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="AA19" s="1"/>
@@ -12786,22 +15775,48 @@
       <c r="A20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>3792</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4150</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>3829</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>4187</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>3920</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>4278</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>3943</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>4301</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>3966</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>4324</v>
+      </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="W20" s="1"/>
+      <c r="V20" s="5" t="s">
+        <v>4002</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>4360</v>
+      </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="AA20" s="1"/>
@@ -12829,22 +15844,48 @@
       <c r="A21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>3793</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>4151</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>3830</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>4188</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>3921</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>4279</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>3944</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>4302</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>3967</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>4325</v>
+      </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="W21" s="1"/>
+      <c r="V21" s="5" t="s">
+        <v>4003</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>4361</v>
+      </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="AA21" s="1"/>
@@ -12872,22 +15913,48 @@
       <c r="A22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>3794</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>4152</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>3831</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>4189</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>3922</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>4280</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>3945</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>4303</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>4326</v>
+      </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="W22" s="1"/>
+      <c r="V22" s="5" t="s">
+        <v>4004</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>4362</v>
+      </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="AA22" s="1"/>
@@ -12915,22 +15982,48 @@
       <c r="A23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>4153</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>3832</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>4190</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>3923</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>4281</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>3946</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>4304</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>3969</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>4327</v>
+      </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="W23" s="1"/>
+      <c r="V23" s="5" t="s">
+        <v>4005</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>4363</v>
+      </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="AA23" s="1"/>
@@ -12958,22 +16051,44 @@
       <c r="A24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>3796</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>4154</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>3833</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>4191</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>3924</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>4282</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>3947</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>4305</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="W24" s="1"/>
+      <c r="V24" s="5" t="s">
+        <v>4006</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>4364</v>
+      </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="AA24" s="1"/>
@@ -13001,13 +16116,22 @@
       <c r="A25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>3797</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>4155</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>3834</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>4192</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -13016,7 +16140,12 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="W25" s="1"/>
+      <c r="V25" s="5" t="s">
+        <v>4007</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>4365</v>
+      </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="AA25" s="1"/>
@@ -13043,13 +16172,22 @@
     <row r="26" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>3798</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>4156</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>3835</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>4193</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -13058,7 +16196,12 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="W26" s="1"/>
+      <c r="V26" s="5" t="s">
+        <v>4008</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>4366</v>
+      </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="AA26" s="1"/>
@@ -13090,8 +16233,12 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>3836</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>4194</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -13100,7 +16247,12 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="W27" s="1"/>
+      <c r="V27" s="5" t="s">
+        <v>4009</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>4367</v>
+      </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="AA27" s="1"/>
@@ -13132,8 +16284,12 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>3837</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>4195</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -13142,7 +16298,12 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="W28" s="1"/>
+      <c r="V28" s="5" t="s">
+        <v>4010</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>4368</v>
+      </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="AA28" s="1"/>
@@ -13174,8 +16335,12 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>3838</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>4196</v>
+      </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -13184,7 +16349,12 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="W29" s="1"/>
+      <c r="V29" s="5" t="s">
+        <v>4011</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>4369</v>
+      </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="AA29" s="1"/>
@@ -13216,8 +16386,12 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>3839</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>4197</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -13226,7 +16400,12 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="W30" s="1"/>
+      <c r="V30" s="5" t="s">
+        <v>4012</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>4370</v>
+      </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="AA30" s="1"/>
@@ -13256,8 +16435,12 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>3840</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>4198</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -13266,7 +16449,12 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="W31" s="1"/>
+      <c r="V31" s="5" t="s">
+        <v>4013</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>4371</v>
+      </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="AA31" s="1"/>
@@ -13296,8 +16484,12 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>3841</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>4199</v>
+      </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -13306,7 +16498,12 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="W32" s="1"/>
+      <c r="V32" s="5" t="s">
+        <v>4014</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>4372</v>
+      </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="AA32" s="1"/>
@@ -13336,8 +16533,12 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>3842</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>4200</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -13346,7 +16547,12 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="W33" s="1"/>
+      <c r="V33" s="5" t="s">
+        <v>4015</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>4373</v>
+      </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="AA33" s="1"/>
@@ -13376,8 +16582,12 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>3843</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>4201</v>
+      </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -13386,7 +16596,12 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="W34" s="1"/>
+      <c r="V34" s="5" t="s">
+        <v>4016</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>4374</v>
+      </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="AA34" s="1"/>
@@ -13416,8 +16631,12 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="L35" s="5" t="s">
+        <v>3844</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>4202</v>
+      </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -13426,7 +16645,12 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-      <c r="W35" s="1"/>
+      <c r="V35" s="5" t="s">
+        <v>4017</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>4375</v>
+      </c>
       <c r="X35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AC35" s="1"/>
@@ -13455,8 +16679,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="L36" s="5" t="s">
+        <v>3845</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>4203</v>
+      </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -13465,7 +16693,12 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="W36" s="1"/>
+      <c r="V36" s="5" t="s">
+        <v>4018</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>4376</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AC36" s="1"/>
@@ -13494,8 +16727,12 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="L37" s="5" t="s">
+        <v>3846</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>4204</v>
+      </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -13504,7 +16741,12 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="W37" s="1"/>
+      <c r="V37" s="5" t="s">
+        <v>4019</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>4377</v>
+      </c>
       <c r="X37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AC37" s="1"/>
@@ -13533,8 +16775,12 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>3847</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>4205</v>
+      </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -13543,7 +16789,12 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="W38" s="1"/>
+      <c r="V38" s="5" t="s">
+        <v>4020</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>4378</v>
+      </c>
       <c r="X38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AC38" s="1"/>
@@ -13572,8 +16823,12 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>3848</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>4206</v>
+      </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -13582,7 +16837,12 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="W39" s="1"/>
+      <c r="V39" s="5" t="s">
+        <v>4021</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>4379</v>
+      </c>
       <c r="X39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AC39" s="1"/>
@@ -13611,8 +16871,12 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>3849</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>4207</v>
+      </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -13621,6 +16885,12 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
+      <c r="V40" s="5" t="s">
+        <v>4022</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>4380</v>
+      </c>
       <c r="X40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AC40" s="1"/>
@@ -13649,8 +16919,12 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>3850</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>4208</v>
+      </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -13659,6 +16933,12 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
+      <c r="V41" s="5" t="s">
+        <v>4023</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>4381</v>
+      </c>
       <c r="X41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AC41" s="1"/>
@@ -13687,8 +16967,12 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>3851</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>4209</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -13697,6 +16981,12 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
+      <c r="V42" s="5" t="s">
+        <v>4024</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>4382</v>
+      </c>
       <c r="X42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AC42" s="1"/>
@@ -13725,8 +17015,12 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>3852</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>4210</v>
+      </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -13735,6 +17029,12 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
+      <c r="V43" s="5" t="s">
+        <v>4025</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>4383</v>
+      </c>
       <c r="X43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AC43" s="1"/>
@@ -13763,8 +17063,12 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>3853</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>4211</v>
+      </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -13773,6 +17077,12 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
+      <c r="V44" s="5" t="s">
+        <v>4026</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>4384</v>
+      </c>
       <c r="X44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AC44" s="1"/>
@@ -13801,8 +17111,12 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="L45" s="5" t="s">
+        <v>3854</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>4212</v>
+      </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -13811,6 +17125,12 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
+      <c r="V45" s="5" t="s">
+        <v>4027</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>4385</v>
+      </c>
       <c r="X45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AC45" s="1"/>
@@ -13837,8 +17157,12 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>3855</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>4213</v>
+      </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -13847,6 +17171,12 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
+      <c r="V46" s="5" t="s">
+        <v>4028</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>4386</v>
+      </c>
       <c r="X46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AC46" s="1"/>
@@ -13873,8 +17203,12 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>3856</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>4214</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -13883,6 +17217,12 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
+      <c r="V47" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>4387</v>
+      </c>
       <c r="X47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AC47" s="1"/>
@@ -13909,8 +17249,12 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>3857</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>4215</v>
+      </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -13919,6 +17263,12 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
+      <c r="V48" s="5" t="s">
+        <v>4030</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>4388</v>
+      </c>
       <c r="X48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AC48" s="1"/>
@@ -13945,8 +17295,12 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>3858</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>4216</v>
+      </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -13955,6 +17309,12 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
+      <c r="V49" s="5" t="s">
+        <v>4031</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>4389</v>
+      </c>
       <c r="X49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AJ49" s="5"/>
@@ -13980,8 +17340,12 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>3859</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>4217</v>
+      </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -13990,6 +17354,12 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
+      <c r="V50" s="5" t="s">
+        <v>4032</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>4390</v>
+      </c>
       <c r="X50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AJ50" s="5"/>
@@ -14015,8 +17385,12 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>3860</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>4218</v>
+      </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -14025,6 +17399,12 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
+      <c r="V51" s="5" t="s">
+        <v>4033</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>4391</v>
+      </c>
       <c r="X51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AJ51" s="5"/>
@@ -14042,15 +17422,19 @@
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
     </row>
-    <row r="52" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>3861</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>4219</v>
+      </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -14059,6 +17443,12 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
+      <c r="V52" s="5" t="s">
+        <v>4034</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>4392</v>
+      </c>
       <c r="AA52" s="1"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5"/>
@@ -14075,15 +17465,19 @@
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
     </row>
-    <row r="53" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="G53" s="5"/>
       <c r="I53" s="4"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>3862</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>4220</v>
+      </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -14092,6 +17486,12 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
+      <c r="V53" s="5" t="s">
+        <v>4035</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>4393</v>
+      </c>
       <c r="AA53" s="1"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5"/>
@@ -14108,15 +17508,19 @@
       <c r="AX53" s="5"/>
       <c r="AY53" s="5"/>
     </row>
-    <row r="54" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="G54" s="5"/>
       <c r="I54" s="4"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>3863</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>4221</v>
+      </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -14125,6 +17529,12 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
+      <c r="V54" s="5" t="s">
+        <v>4036</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>4394</v>
+      </c>
       <c r="AA54" s="1"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5"/>
@@ -14141,15 +17551,19 @@
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
     </row>
-    <row r="55" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="G55" s="5"/>
       <c r="I55" s="4"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>3864</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>4222</v>
+      </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -14158,6 +17572,12 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
+      <c r="V55" s="5" t="s">
+        <v>4037</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>4395</v>
+      </c>
       <c r="AA55" s="1"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
@@ -14174,15 +17594,19 @@
       <c r="AX55" s="5"/>
       <c r="AY55" s="5"/>
     </row>
-    <row r="56" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="G56" s="5"/>
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
+      <c r="L56" s="5" t="s">
+        <v>3865</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>4223</v>
+      </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -14191,6 +17615,12 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
+      <c r="V56" s="5" t="s">
+        <v>4038</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>4396</v>
+      </c>
       <c r="AA56" s="1"/>
       <c r="AJ56" s="5"/>
       <c r="AK56" s="5"/>
@@ -14207,15 +17637,19 @@
       <c r="AX56" s="5"/>
       <c r="AY56" s="5"/>
     </row>
-    <row r="57" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="G57" s="5"/>
       <c r="I57" s="4"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
+      <c r="L57" s="5" t="s">
+        <v>3866</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>4224</v>
+      </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -14224,6 +17658,12 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
+      <c r="V57" s="5" t="s">
+        <v>4039</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>4397</v>
+      </c>
       <c r="AA57" s="1"/>
       <c r="AJ57" s="5"/>
       <c r="AK57" s="5"/>
@@ -14240,15 +17680,19 @@
       <c r="AX57" s="5"/>
       <c r="AY57" s="5"/>
     </row>
-    <row r="58" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="G58" s="5"/>
       <c r="I58" s="4"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>3867</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>4225</v>
+      </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -14257,6 +17701,12 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
+      <c r="V58" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>4398</v>
+      </c>
       <c r="AA58" s="1"/>
       <c r="AJ58" s="5"/>
       <c r="AK58" s="5"/>
@@ -14273,15 +17723,19 @@
       <c r="AX58" s="5"/>
       <c r="AY58" s="5"/>
     </row>
-    <row r="59" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="G59" s="5"/>
       <c r="I59" s="4"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
+      <c r="L59" s="5" t="s">
+        <v>3868</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>4226</v>
+      </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
@@ -14290,6 +17744,12 @@
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
+      <c r="V59" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>4399</v>
+      </c>
       <c r="AA59" s="1"/>
       <c r="AJ59" s="5"/>
       <c r="AK59" s="5"/>
@@ -14306,15 +17766,19 @@
       <c r="AX59" s="5"/>
       <c r="AY59" s="5"/>
     </row>
-    <row r="60" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="G60" s="5"/>
       <c r="I60" s="4"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
+      <c r="L60" s="5" t="s">
+        <v>3869</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>4227</v>
+      </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
@@ -14323,6 +17787,12 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
+      <c r="V60" s="5" t="s">
+        <v>4042</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>4400</v>
+      </c>
       <c r="AA60" s="1"/>
       <c r="AJ60" s="5"/>
       <c r="AK60" s="5"/>
@@ -14339,15 +17809,19 @@
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
     </row>
-    <row r="61" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
+      <c r="L61" s="5" t="s">
+        <v>3870</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>4228</v>
+      </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
@@ -14356,6 +17830,12 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
+      <c r="V61" s="5" t="s">
+        <v>4043</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>4401</v>
+      </c>
       <c r="AA61" s="1"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
@@ -14372,15 +17852,19 @@
       <c r="AX61" s="5"/>
       <c r="AY61" s="5"/>
     </row>
-    <row r="62" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="G62" s="5"/>
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>3871</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>4229</v>
+      </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -14389,6 +17873,12 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
+      <c r="V62" s="5" t="s">
+        <v>4044</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>4402</v>
+      </c>
       <c r="AA62" s="1"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="5"/>
@@ -14405,15 +17895,19 @@
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
     </row>
-    <row r="63" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="G63" s="5"/>
       <c r="I63" s="4"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
+      <c r="L63" s="5" t="s">
+        <v>3872</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>4230</v>
+      </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -14422,6 +17916,12 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
+      <c r="V63" s="5" t="s">
+        <v>4045</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>4403</v>
+      </c>
       <c r="AA63" s="1"/>
       <c r="AJ63" s="5"/>
       <c r="AK63" s="5"/>
@@ -14438,15 +17938,19 @@
       <c r="AX63" s="5"/>
       <c r="AY63" s="5"/>
     </row>
-    <row r="64" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="G64" s="5"/>
       <c r="I64" s="4"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
+      <c r="L64" s="5" t="s">
+        <v>3873</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>4231</v>
+      </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
@@ -14455,6 +17959,12 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
+      <c r="V64" s="5" t="s">
+        <v>4046</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>4404</v>
+      </c>
       <c r="AA64" s="1"/>
       <c r="AJ64" s="5"/>
       <c r="AK64" s="5"/>
@@ -14471,15 +17981,19 @@
       <c r="AX64" s="5"/>
       <c r="AY64" s="5"/>
     </row>
-    <row r="65" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="G65" s="5"/>
       <c r="I65" s="4"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+      <c r="L65" s="5" t="s">
+        <v>3874</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>4232</v>
+      </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
@@ -14488,6 +18002,12 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
+      <c r="V65" s="5" t="s">
+        <v>4047</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>4405</v>
+      </c>
       <c r="AA65" s="1"/>
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5"/>
@@ -14504,15 +18024,19 @@
       <c r="AX65" s="5"/>
       <c r="AY65" s="5"/>
     </row>
-    <row r="66" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="G66" s="5"/>
       <c r="I66" s="4"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
+      <c r="L66" s="5" t="s">
+        <v>3875</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>4233</v>
+      </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
@@ -14521,6 +18045,12 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
+      <c r="V66" s="5" t="s">
+        <v>4048</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>4406</v>
+      </c>
       <c r="AA66" s="1"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5"/>
@@ -14537,15 +18067,19 @@
       <c r="AX66" s="5"/>
       <c r="AY66" s="5"/>
     </row>
-    <row r="67" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="G67" s="5"/>
       <c r="I67" s="4"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+      <c r="L67" s="5" t="s">
+        <v>3876</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>4234</v>
+      </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
@@ -14554,6 +18088,12 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
+      <c r="V67" s="5" t="s">
+        <v>4049</v>
+      </c>
+      <c r="W67" s="5" t="s">
+        <v>4407</v>
+      </c>
       <c r="AA67" s="1"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5"/>
@@ -14570,15 +18110,19 @@
       <c r="AX67" s="5"/>
       <c r="AY67" s="5"/>
     </row>
-    <row r="68" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="G68" s="5"/>
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
+      <c r="L68" s="5" t="s">
+        <v>3877</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>4235</v>
+      </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
@@ -14587,6 +18131,12 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
+      <c r="V68" s="5" t="s">
+        <v>4050</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>4408</v>
+      </c>
       <c r="AA68" s="1"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5"/>
@@ -14603,15 +18153,19 @@
       <c r="AX68" s="5"/>
       <c r="AY68" s="5"/>
     </row>
-    <row r="69" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="G69" s="5"/>
       <c r="I69" s="4"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="L69" s="5" t="s">
+        <v>3878</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>4236</v>
+      </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -14620,6 +18174,12 @@
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
+      <c r="V69" s="5" t="s">
+        <v>4051</v>
+      </c>
+      <c r="W69" s="5" t="s">
+        <v>4409</v>
+      </c>
       <c r="AA69" s="1"/>
       <c r="AJ69" s="5"/>
       <c r="AK69" s="5"/>
@@ -14636,15 +18196,19 @@
       <c r="AX69" s="5"/>
       <c r="AY69" s="5"/>
     </row>
-    <row r="70" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="G70" s="5"/>
       <c r="I70" s="4"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
+      <c r="L70" s="5" t="s">
+        <v>3879</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>4237</v>
+      </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
@@ -14653,6 +18217,12 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
+      <c r="V70" s="5" t="s">
+        <v>4052</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>4410</v>
+      </c>
       <c r="AA70" s="1"/>
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
@@ -14669,15 +18239,19 @@
       <c r="AX70" s="5"/>
       <c r="AY70" s="5"/>
     </row>
-    <row r="71" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="G71" s="5"/>
       <c r="I71" s="4"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
+      <c r="L71" s="5" t="s">
+        <v>3880</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>4238</v>
+      </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
@@ -14686,6 +18260,12 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
+      <c r="V71" s="5" t="s">
+        <v>4053</v>
+      </c>
+      <c r="W71" s="5" t="s">
+        <v>4411</v>
+      </c>
       <c r="AA71" s="1"/>
       <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
@@ -14702,15 +18282,19 @@
       <c r="AX71" s="5"/>
       <c r="AY71" s="5"/>
     </row>
-    <row r="72" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="G72" s="5"/>
       <c r="I72" s="4"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
+      <c r="L72" s="5" t="s">
+        <v>3881</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>4239</v>
+      </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -14719,6 +18303,12 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
+      <c r="V72" s="5" t="s">
+        <v>4054</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>4412</v>
+      </c>
       <c r="AA72" s="1"/>
       <c r="AJ72" s="5"/>
       <c r="AK72" s="5"/>
@@ -14735,15 +18325,19 @@
       <c r="AX72" s="5"/>
       <c r="AY72" s="5"/>
     </row>
-    <row r="73" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="G73" s="5"/>
       <c r="I73" s="4"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+      <c r="L73" s="5" t="s">
+        <v>3882</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>4240</v>
+      </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
@@ -14752,6 +18346,12 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
+      <c r="V73" s="5" t="s">
+        <v>4055</v>
+      </c>
+      <c r="W73" s="5" t="s">
+        <v>4413</v>
+      </c>
       <c r="AA73" s="1"/>
       <c r="AJ73" s="5"/>
       <c r="AK73" s="5"/>
@@ -14768,15 +18368,19 @@
       <c r="AX73" s="5"/>
       <c r="AY73" s="5"/>
     </row>
-    <row r="74" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="G74" s="5"/>
       <c r="I74" s="4"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
+      <c r="L74" s="5" t="s">
+        <v>3883</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>4241</v>
+      </c>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -14785,6 +18389,12 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
+      <c r="V74" s="5" t="s">
+        <v>4056</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>4414</v>
+      </c>
       <c r="AA74" s="1"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="5"/>
@@ -14801,15 +18411,19 @@
       <c r="AX74" s="5"/>
       <c r="AY74" s="5"/>
     </row>
-    <row r="75" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="G75" s="5"/>
       <c r="I75" s="4"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
+      <c r="L75" s="5" t="s">
+        <v>3884</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>4242</v>
+      </c>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -14818,6 +18432,12 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
+      <c r="V75" s="5" t="s">
+        <v>4057</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>4415</v>
+      </c>
       <c r="AA75" s="1"/>
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
@@ -14834,15 +18454,19 @@
       <c r="AX75" s="5"/>
       <c r="AY75" s="5"/>
     </row>
-    <row r="76" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
+      <c r="L76" s="5" t="s">
+        <v>3885</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>4243</v>
+      </c>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
@@ -14851,6 +18475,12 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
+      <c r="V76" s="5" t="s">
+        <v>4058</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>4416</v>
+      </c>
       <c r="AA76" s="1"/>
       <c r="AJ76" s="5"/>
       <c r="AK76" s="5"/>
@@ -14867,15 +18497,19 @@
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
     </row>
-    <row r="77" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="G77" s="5"/>
       <c r="I77" s="4"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
+      <c r="L77" s="5" t="s">
+        <v>3886</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>4244</v>
+      </c>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
@@ -14884,6 +18518,12 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
+      <c r="V77" s="5" t="s">
+        <v>4059</v>
+      </c>
+      <c r="W77" s="5" t="s">
+        <v>4417</v>
+      </c>
       <c r="AA77" s="1"/>
       <c r="AJ77" s="5"/>
       <c r="AK77" s="5"/>
@@ -14900,15 +18540,19 @@
       <c r="AX77" s="5"/>
       <c r="AY77" s="5"/>
     </row>
-    <row r="78" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="G78" s="5"/>
       <c r="I78" s="4"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
+      <c r="L78" s="5" t="s">
+        <v>3887</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>4245</v>
+      </c>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
@@ -14917,6 +18561,12 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
+      <c r="V78" s="5" t="s">
+        <v>4060</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>4418</v>
+      </c>
       <c r="AA78" s="1"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="5"/>
@@ -14933,15 +18583,19 @@
       <c r="AX78" s="5"/>
       <c r="AY78" s="5"/>
     </row>
-    <row r="79" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="G79" s="5"/>
       <c r="I79" s="4"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="L79" s="5" t="s">
+        <v>3888</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>4246</v>
+      </c>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -14950,6 +18604,12 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
+      <c r="V79" s="5" t="s">
+        <v>4061</v>
+      </c>
+      <c r="W79" s="5" t="s">
+        <v>4419</v>
+      </c>
       <c r="AA79" s="1"/>
       <c r="AJ79" s="5"/>
       <c r="AK79" s="5"/>
@@ -14966,15 +18626,19 @@
       <c r="AX79" s="5"/>
       <c r="AY79" s="5"/>
     </row>
-    <row r="80" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="G80" s="5"/>
       <c r="I80" s="4"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
+      <c r="L80" s="5" t="s">
+        <v>3889</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>4247</v>
+      </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
@@ -14983,6 +18647,12 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
+      <c r="V80" s="5" t="s">
+        <v>4062</v>
+      </c>
+      <c r="W80" s="5" t="s">
+        <v>4420</v>
+      </c>
       <c r="AA80" s="1"/>
       <c r="AJ80" s="5"/>
       <c r="AK80" s="5"/>
@@ -14997,15 +18667,19 @@
       <c r="AX80" s="5"/>
       <c r="AY80" s="5"/>
     </row>
-    <row r="81" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="G81" s="5"/>
       <c r="I81" s="4"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>3890</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>4248</v>
+      </c>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
@@ -15014,6 +18688,12 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
+      <c r="V81" s="5" t="s">
+        <v>4063</v>
+      </c>
+      <c r="W81" s="5" t="s">
+        <v>4421</v>
+      </c>
       <c r="AA81" s="1"/>
       <c r="AJ81" s="5"/>
       <c r="AK81" s="5"/>
@@ -15028,15 +18708,19 @@
       <c r="AX81" s="5"/>
       <c r="AY81" s="5"/>
     </row>
-    <row r="82" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="G82" s="5"/>
       <c r="I82" s="4"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
+      <c r="L82" s="5" t="s">
+        <v>3891</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>4249</v>
+      </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -15045,6 +18729,12 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
+      <c r="V82" s="5" t="s">
+        <v>4064</v>
+      </c>
+      <c r="W82" s="5" t="s">
+        <v>4422</v>
+      </c>
       <c r="AA82" s="1"/>
       <c r="AJ82" s="5"/>
       <c r="AK82" s="5"/>
@@ -15059,15 +18749,19 @@
       <c r="AX82" s="5"/>
       <c r="AY82" s="5"/>
     </row>
-    <row r="83" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="G83" s="5"/>
       <c r="I83" s="4"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="L83" s="5" t="s">
+        <v>3892</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>4250</v>
+      </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -15076,6 +18770,12 @@
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
+      <c r="V83" s="5" t="s">
+        <v>4065</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>4423</v>
+      </c>
       <c r="AA83" s="1"/>
       <c r="AJ83" s="5"/>
       <c r="AK83" s="5"/>
@@ -15090,15 +18790,19 @@
       <c r="AX83" s="5"/>
       <c r="AY83" s="5"/>
     </row>
-    <row r="84" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="G84" s="5"/>
       <c r="I84" s="4"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+      <c r="L84" s="5" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>4251</v>
+      </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
@@ -15107,6 +18811,12 @@
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
+      <c r="V84" s="5" t="s">
+        <v>4066</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>4424</v>
+      </c>
       <c r="AA84" s="1"/>
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5"/>
@@ -15121,15 +18831,19 @@
       <c r="AX84" s="5"/>
       <c r="AY84" s="5"/>
     </row>
-    <row r="85" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="G85" s="5"/>
       <c r="I85" s="4"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+      <c r="L85" s="5" t="s">
+        <v>3894</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>4252</v>
+      </c>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
@@ -15138,6 +18852,12 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
+      <c r="V85" s="5" t="s">
+        <v>4067</v>
+      </c>
+      <c r="W85" s="5" t="s">
+        <v>4425</v>
+      </c>
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
       <c r="AP85" s="5"/>
@@ -15151,15 +18871,19 @@
       <c r="AX85" s="5"/>
       <c r="AY85" s="5"/>
     </row>
-    <row r="86" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="G86" s="5"/>
       <c r="I86" s="4"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="L86" s="5" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>4253</v>
+      </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
@@ -15168,6 +18892,12 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
+      <c r="V86" s="5" t="s">
+        <v>4068</v>
+      </c>
+      <c r="W86" s="5" t="s">
+        <v>4426</v>
+      </c>
       <c r="AJ86" s="5"/>
       <c r="AK86" s="5"/>
       <c r="AP86" s="5"/>
@@ -15181,15 +18911,19 @@
       <c r="AX86" s="5"/>
       <c r="AY86" s="5"/>
     </row>
-    <row r="87" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="G87" s="5"/>
       <c r="I87" s="4"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
+      <c r="L87" s="5" t="s">
+        <v>3896</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>4254</v>
+      </c>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
@@ -15198,6 +18932,12 @@
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
+      <c r="V87" s="5" t="s">
+        <v>4069</v>
+      </c>
+      <c r="W87" s="5" t="s">
+        <v>4427</v>
+      </c>
       <c r="AJ87" s="5"/>
       <c r="AK87" s="5"/>
       <c r="AP87" s="5"/>
@@ -15211,15 +18951,19 @@
       <c r="AX87" s="5"/>
       <c r="AY87" s="5"/>
     </row>
-    <row r="88" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="G88" s="5"/>
       <c r="I88" s="4"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
+      <c r="L88" s="5" t="s">
+        <v>3897</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>4255</v>
+      </c>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
@@ -15228,6 +18972,12 @@
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
+      <c r="V88" s="5" t="s">
+        <v>4070</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>4428</v>
+      </c>
       <c r="AJ88" s="5"/>
       <c r="AK88" s="5"/>
       <c r="AP88" s="5"/>
@@ -15241,15 +18991,19 @@
       <c r="AX88" s="5"/>
       <c r="AY88" s="5"/>
     </row>
-    <row r="89" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="G89" s="5"/>
       <c r="I89" s="4"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
+      <c r="L89" s="5" t="s">
+        <v>3898</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>4256</v>
+      </c>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
@@ -15258,6 +19012,12 @@
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
+      <c r="V89" s="5" t="s">
+        <v>4071</v>
+      </c>
+      <c r="W89" s="5" t="s">
+        <v>4429</v>
+      </c>
       <c r="AJ89" s="5"/>
       <c r="AK89" s="5"/>
       <c r="AP89" s="5"/>
@@ -15271,15 +19031,19 @@
       <c r="AX89" s="5"/>
       <c r="AY89" s="5"/>
     </row>
-    <row r="90" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="G90" s="5"/>
       <c r="I90" s="4"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
+      <c r="L90" s="5" t="s">
+        <v>3899</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>4257</v>
+      </c>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
@@ -15288,6 +19052,12 @@
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
+      <c r="V90" s="5" t="s">
+        <v>4072</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>4430</v>
+      </c>
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5"/>
       <c r="AP90" s="5"/>
@@ -15301,15 +19071,19 @@
       <c r="AX90" s="5"/>
       <c r="AY90" s="5"/>
     </row>
-    <row r="91" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
       <c r="I91" s="4"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
+      <c r="L91" s="5" t="s">
+        <v>3900</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>4258</v>
+      </c>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
@@ -15318,6 +19092,12 @@
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
+      <c r="V91" s="5" t="s">
+        <v>4073</v>
+      </c>
+      <c r="W91" s="5" t="s">
+        <v>4431</v>
+      </c>
       <c r="AJ91" s="5"/>
       <c r="AK91" s="5"/>
       <c r="AP91" s="5"/>
@@ -15331,15 +19111,19 @@
       <c r="AX91" s="5"/>
       <c r="AY91" s="5"/>
     </row>
-    <row r="92" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
       <c r="I92" s="4"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
+      <c r="L92" s="5" t="s">
+        <v>3901</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>4259</v>
+      </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
@@ -15348,6 +19132,12 @@
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
+      <c r="V92" s="5" t="s">
+        <v>4074</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>4432</v>
+      </c>
       <c r="AJ92" s="5"/>
       <c r="AK92" s="5"/>
       <c r="AP92" s="5"/>
@@ -15359,7 +19149,7 @@
       <c r="AX92" s="5"/>
       <c r="AY92" s="5"/>
     </row>
-    <row r="93" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
@@ -15376,6 +19166,12 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
+      <c r="V93" s="5" t="s">
+        <v>4075</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>4433</v>
+      </c>
       <c r="AJ93" s="5"/>
       <c r="AK93" s="5"/>
       <c r="AP93" s="5"/>
@@ -15387,7 +19183,7 @@
       <c r="AX93" s="5"/>
       <c r="AY93" s="5"/>
     </row>
-    <row r="94" spans="4:51" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:51" ht="135" x14ac:dyDescent="0.25">
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="G94" s="5"/>
@@ -15404,6 +19200,12 @@
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
+      <c r="V94" s="5" t="s">
+        <v>4076</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>4434</v>
+      </c>
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5"/>
       <c r="AP94" s="5"/>
